--- a/data_year/zb/城市概况/城市绿地和园林.xlsx
+++ b/data_year/zb/城市概况/城市绿地和园林.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,371 +463,265 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6427</v>
+        <v>9955</v>
       </c>
       <c r="C2" t="n">
-        <v>13.384598</v>
+        <v>25.8177</v>
       </c>
       <c r="D2" t="n">
-        <v>25.228593</v>
+        <v>44.1276</v>
       </c>
       <c r="E2" t="n">
-        <v>132.186606</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>213.4339</v>
+      </c>
+      <c r="F2" t="n">
+        <v>38.62</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7077</v>
+        <v>10780</v>
       </c>
       <c r="C3" t="n">
-        <v>15.781591</v>
+        <v>28.5751</v>
       </c>
       <c r="D3" t="n">
-        <v>28.375806</v>
+        <v>48.262</v>
       </c>
       <c r="E3" t="n">
-        <v>146.822857</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>224.2856</v>
+      </c>
+      <c r="F3" t="n">
+        <v>39.22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6908</v>
+        <v>11604</v>
       </c>
       <c r="C4" t="n">
-        <v>20.8056</v>
+        <v>30.6245</v>
       </c>
       <c r="D4" t="n">
-        <v>30.9544</v>
+        <v>51.7815</v>
       </c>
       <c r="E4" t="n">
-        <v>132.1191</v>
+        <v>236.7842</v>
       </c>
       <c r="F4" t="n">
-        <v>35.11</v>
+        <v>39.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7913</v>
+        <v>12401</v>
       </c>
       <c r="C5" t="n">
-        <v>20.2244</v>
+        <v>32.984148</v>
       </c>
       <c r="D5" t="n">
-        <v>33.2654</v>
+        <v>54.735598</v>
       </c>
       <c r="E5" t="n">
-        <v>170.8995</v>
+        <v>242.722087</v>
       </c>
       <c r="F5" t="n">
-        <v>35.2857442912462</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8557</v>
+        <v>13037</v>
       </c>
       <c r="C6" t="n">
-        <v>21.826</v>
+        <v>35.242275</v>
       </c>
       <c r="D6" t="n">
-        <v>35.9468</v>
+        <v>57.681747</v>
       </c>
       <c r="E6" t="n">
-        <v>174.7493</v>
+        <v>252.796249</v>
       </c>
       <c r="F6" t="n">
-        <v>37.37</v>
+        <v>40.22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9050</v>
+        <v>13834</v>
       </c>
       <c r="C7" t="n">
-        <v>23.5825</v>
+        <v>38.380453</v>
       </c>
       <c r="D7" t="n">
-        <v>40.1584</v>
+        <v>61.409038</v>
       </c>
       <c r="E7" t="n">
-        <v>199.3168</v>
+        <v>266.956674</v>
       </c>
       <c r="F7" t="n">
-        <v>38.22</v>
+        <v>40.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9955</v>
+        <v>15370</v>
       </c>
       <c r="C8" t="n">
-        <v>25.8177</v>
+        <v>41.688098</v>
       </c>
       <c r="D8" t="n">
-        <v>44.1276</v>
+        <v>65.35553</v>
       </c>
       <c r="E8" t="n">
-        <v>213.4339</v>
+        <v>278.608034</v>
       </c>
       <c r="F8" t="n">
-        <v>38.62</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10780</v>
+        <v>15633</v>
       </c>
       <c r="C9" t="n">
-        <v>28.5751</v>
+        <v>44.462183</v>
       </c>
       <c r="D9" t="n">
-        <v>48.262</v>
+        <v>68.84411799999999</v>
       </c>
       <c r="E9" t="n">
-        <v>224.2856</v>
+        <v>292.134603</v>
       </c>
       <c r="F9" t="n">
-        <v>39.22</v>
+        <v>40.91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11604</v>
+        <v>16735</v>
       </c>
       <c r="C10" t="n">
-        <v>30.6245</v>
+        <v>49.422772</v>
       </c>
       <c r="D10" t="n">
-        <v>51.7815</v>
+        <v>72.373958</v>
       </c>
       <c r="E10" t="n">
-        <v>236.7842</v>
+        <v>304.710796</v>
       </c>
       <c r="F10" t="n">
-        <v>39.59</v>
+        <v>41.1147368753022</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12401</v>
+        <v>18038</v>
       </c>
       <c r="C11" t="n">
-        <v>32.984148</v>
+        <v>50.23599</v>
       </c>
       <c r="D11" t="n">
-        <v>54.735598</v>
+        <v>75.644054</v>
       </c>
       <c r="E11" t="n">
-        <v>242.722087</v>
+        <v>315.288868</v>
       </c>
       <c r="F11" t="n">
-        <v>39.7</v>
+        <v>41.5149366068876</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13037</v>
+        <v>19823</v>
       </c>
       <c r="C12" t="n">
-        <v>35.242275</v>
+        <v>53.84773</v>
       </c>
       <c r="D12" t="n">
-        <v>57.681747</v>
+        <v>79.791175</v>
       </c>
       <c r="E12" t="n">
-        <v>252.796249</v>
+        <v>331.224453</v>
       </c>
       <c r="F12" t="n">
-        <v>40.22</v>
+        <v>42.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13834</v>
+        <v>22062</v>
       </c>
       <c r="C13" t="n">
-        <v>38.380453</v>
+        <v>64.7962</v>
       </c>
       <c r="D13" t="n">
-        <v>61.409038</v>
+        <v>83.5659</v>
       </c>
       <c r="E13" t="n">
-        <v>266.956674</v>
+        <v>347.9788</v>
       </c>
       <c r="F13" t="n">
-        <v>40.12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>15370</v>
-      </c>
-      <c r="C14" t="n">
-        <v>41.688098</v>
-      </c>
-      <c r="D14" t="n">
-        <v>65.35553</v>
-      </c>
-      <c r="E14" t="n">
-        <v>278.608034</v>
-      </c>
-      <c r="F14" t="n">
-        <v>40.3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>15633</v>
-      </c>
-      <c r="C15" t="n">
-        <v>44.462183</v>
-      </c>
-      <c r="D15" t="n">
-        <v>68.84411799999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>292.134603</v>
-      </c>
-      <c r="F15" t="n">
-        <v>40.91</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>16735</v>
-      </c>
-      <c r="C16" t="n">
-        <v>49.422772</v>
-      </c>
-      <c r="D16" t="n">
-        <v>72.373958</v>
-      </c>
-      <c r="E16" t="n">
-        <v>304.710796</v>
-      </c>
-      <c r="F16" t="n">
-        <v>41.1147368753022</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>18038</v>
-      </c>
-      <c r="C17" t="n">
-        <v>50.23599</v>
-      </c>
-      <c r="D17" t="n">
-        <v>75.644054</v>
-      </c>
-      <c r="E17" t="n">
-        <v>315.288868</v>
-      </c>
-      <c r="F17" t="n">
-        <v>41.5149366068876</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>19823</v>
-      </c>
-      <c r="C18" t="n">
-        <v>53.84773</v>
-      </c>
-      <c r="D18" t="n">
-        <v>79.791175</v>
-      </c>
-      <c r="E18" t="n">
-        <v>331.224453</v>
-      </c>
-      <c r="F18" t="n">
-        <v>42.06</v>
+        <v>42.42</v>
       </c>
     </row>
   </sheetData>
